--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,34 +62,46 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.862+/-0.002</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>0.899+/-0.004</t>
-  </si>
-  <si>
-    <t>0.766+/-0.011</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.718+/-0.007</t>
-  </si>
-  <si>
-    <t>0.597+/-0.035</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>10.196+/-0.789</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.861+/-0.002</t>
+  </si>
+  <si>
+    <t>0.779+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.895+/-0.004</t>
+  </si>
+  <si>
+    <t>0.768+/-0.013</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.718+/-0.008</t>
+  </si>
+  <si>
+    <t>0.6+/-0.038</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>8.157+/-0.114</t>
   </si>
   <si>
     <t>0.724+/-0.003</t>
@@ -98,145 +110,157 @@
     <t>0.71+/-0.0</t>
   </si>
   <si>
-    <t>0.72</t>
+    <t>0.717</t>
   </si>
   <si>
     <t>0.659+/-0.005</t>
   </si>
   <si>
-    <t>0.638+/-0.017</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.572+/-0.007</t>
-  </si>
-  <si>
-    <t>0.554+/-0.032</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>1.657+/-0.117</t>
-  </si>
-  <si>
-    <t>0.806+/-0.003</t>
-  </si>
-  <si>
-    <t>0.767+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.788+/-0.005</t>
-  </si>
-  <si>
-    <t>0.728+/-0.023</t>
+    <t>0.639+/-0.015</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.57+/-0.009</t>
+  </si>
+  <si>
+    <t>0.549+/-0.026</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>1.299+/-0.028</t>
+  </si>
+  <si>
+    <t>0.805+/-0.003</t>
+  </si>
+  <si>
+    <t>0.768+/-0.0</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.785+/-0.004</t>
+  </si>
+  <si>
+    <t>0.73+/-0.023</t>
   </si>
   <si>
     <t>0.735</t>
   </si>
   <si>
-    <t>0.672+/-0.009</t>
-  </si>
-  <si>
-    <t>0.622+/-0.032</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>6.318+/-0.368</t>
-  </si>
-  <si>
-    <t>0.738+/-0.004</t>
-  </si>
-  <si>
-    <t>0.715+/-0.0</t>
+    <t>0.673+/-0.006</t>
+  </si>
+  <si>
+    <t>0.621+/-0.035</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>5.071+/-0.072</t>
+  </si>
+  <si>
+    <t>0.742+/-0.005</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
   </si>
   <si>
     <t>0.725</t>
   </si>
   <si>
-    <t>0.85+/-0.007</t>
-  </si>
-  <si>
-    <t>0.792+/-0.037</t>
-  </si>
-  <si>
-    <t>0.813</t>
-  </si>
-  <si>
-    <t>0.379+/-0.013</t>
-  </si>
-  <si>
-    <t>0.343+/-0.027</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.935+/-0.099</t>
+    <t>0.834+/-0.01</t>
+  </si>
+  <si>
+    <t>0.78+/-0.027</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.404+/-0.023</t>
+  </si>
+  <si>
+    <t>0.366+/-0.03</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.721+/-0.023</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
   </si>
   <si>
     <t>0.89+/-0.001</t>
   </si>
   <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.855</t>
-  </si>
-  <si>
-    <t>0.927+/-0.004</t>
-  </si>
-  <si>
-    <t>0.726+/-0.039</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.482+/-0.007</t>
-  </si>
-  <si>
-    <t>0.37+/-0.03</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>8.671+/-0.31</t>
-  </si>
-  <si>
-    <t>0.832+/-0.002</t>
-  </si>
-  <si>
-    <t>0.827+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.633+/-0.004</t>
-  </si>
-  <si>
-    <t>0.612+/-0.035</t>
-  </si>
-  <si>
-    <t>0.369+/-0.011</t>
-  </si>
-  <si>
-    <t>0.354+/-0.027</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>1.584+/-0.124</t>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.924+/-0.005</t>
+  </si>
+  <si>
+    <t>0.73+/-0.042</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.487+/-0.007</t>
+  </si>
+  <si>
+    <t>0.375+/-0.032</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>8.152+/-0.745</t>
+  </si>
+  <si>
+    <t>0.832+/-0.001</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.634+/-0.004</t>
+  </si>
+  <si>
+    <t>0.617+/-0.035</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.367+/-0.01</t>
+  </si>
+  <si>
+    <t>0.357+/-0.034</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>1.123+/-0.028</t>
   </si>
   <si>
     <t>0.866+/-0.001</t>
@@ -248,55 +272,55 @@
     <t>0.846</t>
   </si>
   <si>
-    <t>0.777+/-0.005</t>
-  </si>
-  <si>
-    <t>0.677+/-0.039</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.453+/-0.006</t>
-  </si>
-  <si>
-    <t>0.394+/-0.031</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>5.794+/-0.387</t>
-  </si>
-  <si>
-    <t>0.819+/-0.002</t>
-  </si>
-  <si>
-    <t>0.815+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.89+/-0.009</t>
-  </si>
-  <si>
-    <t>0.83+/-0.088</t>
-  </si>
-  <si>
-    <t>0.915</t>
-  </si>
-  <si>
-    <t>0.102+/-0.012</t>
-  </si>
-  <si>
-    <t>0.085+/-0.023</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>1.016+/-0.147</t>
+    <t>0.777+/-0.006</t>
+  </si>
+  <si>
+    <t>0.677+/-0.035</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.453+/-0.007</t>
+  </si>
+  <si>
+    <t>0.395+/-0.029</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>4.403+/-0.103</t>
+  </si>
+  <si>
+    <t>0.823+/-0.002</t>
+  </si>
+  <si>
+    <t>0.817+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.874+/-0.018</t>
+  </si>
+  <si>
+    <t>0.807+/-0.088</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.128+/-0.016</t>
+  </si>
+  <si>
+    <t>0.107+/-0.029</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.61+/-0.042</t>
   </si>
 </sst>
 </file>
@@ -685,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.6189445196211096</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,19 +726,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.6189445196211096</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,19 +746,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,19 +766,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,19 +786,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,19 +806,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -802,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -822,19 +846,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -842,19 +866,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -862,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -912,19 +936,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.8014433919711321</v>
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,19 +956,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.8014433919711321</v>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,19 +976,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,19 +996,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,19 +1036,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,19 +1056,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,19 +1076,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,19 +1096,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,19 +1116,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
@@ -74,34 +74,37 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.779+/-0.0</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.895+/-0.004</t>
-  </si>
-  <si>
-    <t>0.768+/-0.013</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.718+/-0.008</t>
-  </si>
-  <si>
-    <t>0.6+/-0.038</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>8.157+/-0.114</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.858+/-0.002</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.899+/-0.005</t>
+  </si>
+  <si>
+    <t>0.772+/-0.013</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.705+/-0.007</t>
+  </si>
+  <si>
+    <t>0.585+/-0.03</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>8.931+/-0.581</t>
   </si>
   <si>
     <t>0.724+/-0.003</t>
@@ -110,88 +113,88 @@
     <t>0.71+/-0.0</t>
   </si>
   <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.659+/-0.005</t>
-  </si>
-  <si>
-    <t>0.639+/-0.015</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.57+/-0.009</t>
-  </si>
-  <si>
-    <t>0.549+/-0.026</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>1.299+/-0.028</t>
-  </si>
-  <si>
-    <t>0.805+/-0.003</t>
-  </si>
-  <si>
-    <t>0.768+/-0.0</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.785+/-0.004</t>
-  </si>
-  <si>
-    <t>0.73+/-0.023</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.673+/-0.006</t>
-  </si>
-  <si>
-    <t>0.621+/-0.035</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>5.071+/-0.072</t>
-  </si>
-  <si>
-    <t>0.742+/-0.005</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.834+/-0.01</t>
-  </si>
-  <si>
-    <t>0.78+/-0.027</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.404+/-0.023</t>
-  </si>
-  <si>
-    <t>0.366+/-0.03</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.721+/-0.023</t>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.659+/-0.003</t>
+  </si>
+  <si>
+    <t>0.638+/-0.018</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.573+/-0.009</t>
+  </si>
+  <si>
+    <t>0.555+/-0.027</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>1.807+/-0.018</t>
+  </si>
+  <si>
+    <t>0.804+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.784+/-0.004</t>
+  </si>
+  <si>
+    <t>0.72+/-0.024</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.672+/-0.008</t>
+  </si>
+  <si>
+    <t>0.621+/-0.041</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>6.409+/-0.441</t>
+  </si>
+  <si>
+    <t>0.719+/-0.006</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.863+/-0.01</t>
+  </si>
+  <si>
+    <t>0.817+/-0.035</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.313+/-0.016</t>
+  </si>
+  <si>
+    <t>0.281+/-0.017</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.966+/-0.08</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -200,127 +203,124 @@
     <t>0.802</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.89+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.856</t>
-  </si>
-  <si>
-    <t>0.924+/-0.005</t>
-  </si>
-  <si>
-    <t>0.73+/-0.042</t>
-  </si>
-  <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>0.487+/-0.007</t>
-  </si>
-  <si>
-    <t>0.375+/-0.032</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>8.152+/-0.745</t>
-  </si>
-  <si>
-    <t>0.832+/-0.001</t>
+    <t>0.889+/-0.001</t>
+  </si>
+  <si>
+    <t>0.847+/-0.0</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.929+/-0.005</t>
+  </si>
+  <si>
+    <t>0.726+/-0.041</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.48+/-0.007</t>
+  </si>
+  <si>
+    <t>0.37+/-0.03</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>9.674+/-0.794</t>
+  </si>
+  <si>
+    <t>0.833+/-0.001</t>
   </si>
   <si>
     <t>0.828+/-0.0</t>
   </si>
   <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.634+/-0.004</t>
-  </si>
-  <si>
-    <t>0.617+/-0.035</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.367+/-0.01</t>
-  </si>
-  <si>
-    <t>0.357+/-0.034</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>1.123+/-0.028</t>
-  </si>
-  <si>
-    <t>0.866+/-0.001</t>
-  </si>
-  <si>
-    <t>0.842+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.777+/-0.006</t>
-  </si>
-  <si>
-    <t>0.677+/-0.035</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.453+/-0.007</t>
-  </si>
-  <si>
-    <t>0.395+/-0.029</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>4.403+/-0.103</t>
-  </si>
-  <si>
-    <t>0.823+/-0.002</t>
-  </si>
-  <si>
-    <t>0.817+/-0.0</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.874+/-0.018</t>
-  </si>
-  <si>
-    <t>0.807+/-0.088</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.128+/-0.016</t>
-  </si>
-  <si>
-    <t>0.107+/-0.029</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.61+/-0.042</t>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.636+/-0.004</t>
+  </si>
+  <si>
+    <t>0.614+/-0.035</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.373+/-0.01</t>
+  </si>
+  <si>
+    <t>0.36+/-0.029</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>1.502+/-0.012</t>
+  </si>
+  <si>
+    <t>0.866+/-0.002</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.779+/-0.006</t>
+  </si>
+  <si>
+    <t>0.683+/-0.029</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.453+/-0.008</t>
+  </si>
+  <si>
+    <t>0.395+/-0.031</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>5.552+/-0.066</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.814+/-0.0</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.893+/-0.014</t>
+  </si>
+  <si>
+    <t>0.836+/-0.085</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>0.103+/-0.015</t>
+  </si>
+  <si>
+    <t>0.079+/-0.017</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.828+/-0.018</t>
   </si>
 </sst>
 </file>
@@ -709,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -729,16 +729,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -749,16 +749,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -769,16 +769,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -789,16 +789,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -809,16 +809,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -829,16 +829,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -849,16 +849,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -869,16 +869,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -886,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
@@ -956,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
